--- a/DWSIM/Assets/samples/DWSIM Add-In Sample.xlsx
+++ b/DWSIM/Assets/samples/DWSIM Add-In Sample.xlsx
@@ -1044,15 +1044,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1069,12 +1060,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1082,9 +1067,24 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1365,10 +1365,10 @@
   <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
@@ -1378,7 +1378,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="51"/>
@@ -1389,80 +1389,80 @@
       <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="75" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="75" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="75" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="83" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="85" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="C6" s="79"/>
-      <c r="E6" s="83"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="83"/>
+      <c r="A6" s="77"/>
+      <c r="C6" s="76"/>
+      <c r="E6" s="85"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="85"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="str">
         <f t="array" ref="A7:A29">_xll.GetPropPackList()</f>
         <v>FPROPS</v>
       </c>
-      <c r="C7" s="81" t="str">
+      <c r="C7" s="78" t="str">
         <f t="array" ref="C7:C303">_xll.GetCompoundList(A10)</f>
         <v>Air</v>
       </c>
-      <c r="E7" s="81" t="str">
+      <c r="E7" s="78" t="str">
         <f t="array" ref="E7:E38">_xll.GetCompoundPropList()</f>
         <v>molecularweight</v>
       </c>
-      <c r="G7" s="81" t="str">
+      <c r="G7" s="78" t="str">
         <f t="array" ref="G7:G10">_xll.GetPhaseList(A10)</f>
         <v>Vapor</v>
       </c>
-      <c r="I7" s="81" t="str">
+      <c r="I7" s="78" t="str">
         <f t="array" ref="I7:I32">_xll.GetPropList(A10)</f>
         <v>compressibilityFactor</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="E10" s="55" t="str">
         <v>criticalvolume</v>
       </c>
-      <c r="G10" s="82" t="str">
+      <c r="G10" s="79" t="str">
         <v>Solid</v>
       </c>
       <c r="I10" s="55" t="str">
@@ -1716,7 +1716,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="str">
-        <v>COSMO-SAC (JCOSMO)</v>
+        <v>IAPWS-IF97 Steam Tables</v>
       </c>
       <c r="C25" s="55" t="str">
         <v>Nitric oxide</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="str">
-        <v>IAPWS-IF97 Steam Tables</v>
+        <v>IAPWS-08 Seawater</v>
       </c>
       <c r="C26" s="55" t="str">
         <v>Nitrogen dioxide</v>
@@ -1743,8 +1743,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="e">
-        <v>#N/A</v>
+      <c r="A27" s="54" t="str">
+        <v>Sour Water</v>
       </c>
       <c r="C27" s="55" t="str">
         <v>Nitrogen</v>
@@ -1788,8 +1788,8 @@
       <c r="C30" s="55" t="str">
         <v>Sulfur dioxide</v>
       </c>
-      <c r="E30" s="55" t="str">
-        <v>densityOfLiquid</v>
+      <c r="E30" s="55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I30" s="54" t="e">
         <v>#N/A</v>
@@ -1799,8 +1799,8 @@
       <c r="C31" s="55" t="str">
         <v>Sulfur trioxide</v>
       </c>
-      <c r="E31" s="55" t="str">
-        <v>densityOfSolid</v>
+      <c r="E31" s="55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I31" s="54" t="e">
         <v>#N/A</v>
@@ -3186,7 +3186,7 @@
       </c>
     </row>
     <row r="303" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C303" s="82" t="str">
+      <c r="C303" s="79" t="str">
         <v>1,2,3,4-tetramethylbenzene</v>
       </c>
     </row>
@@ -3205,10 +3205,10 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -3217,7 +3217,8 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -3388,9 +3389,9 @@
       <c r="I9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
       <c r="M9" s="63"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3398,32 +3399,32 @@
         <v>32</v>
       </c>
       <c r="B10" s="61"/>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="I10" s="64" t="s">
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="I10" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="66"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="D11" s="72" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="D11" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="73" t="str">
+      <c r="E11" s="70" t="str">
         <f>Basic!G7</f>
         <v>Vapor</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="69"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="66"/>
       <c r="I11" s="8"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -3431,20 +3432,20 @@
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
       <c r="I12" s="8"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -3512,11 +3513,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
-        <f>Basic!E7</f>
+        <f t="array" ref="A16">Basic!E7</f>
         <v>molecularweight</v>
       </c>
       <c r="B16" s="13">
-        <f>_xll.GetCompoundProp($B$12,A16)</f>
+        <f t="array" ref="B16">_xll.GetCompoundProp($B$12,A16)</f>
         <v>44.097000000000001</v>
       </c>
       <c r="D16" s="12" t="str">
@@ -3533,10 +3534,10 @@
         <v>21</v>
       </c>
       <c r="J16" s="45">
-        <v>0.67688823828667632</v>
+        <v>0.67692641633931838</v>
       </c>
       <c r="K16" s="45">
-        <v>0.32311176171332368</v>
+        <v>0.32307358366068162</v>
       </c>
       <c r="L16" s="45">
         <v>0</v>
@@ -3569,10 +3570,10 @@
         <v>Methane</v>
       </c>
       <c r="J17" s="45">
-        <v>0.46597400862079513</v>
+        <v>0.46595491368709924</v>
       </c>
       <c r="K17" s="45">
-        <v>4.5145070652644441E-2</v>
+        <v>4.5137538061071479E-2</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
@@ -3605,10 +3606,10 @@
         <v>Ethane</v>
       </c>
       <c r="J18" s="45">
-        <v>0.35292200018804254</v>
+        <v>0.35292529510797943</v>
       </c>
       <c r="K18" s="45">
-        <v>0.28198019966981874</v>
+        <v>0.28196528151850692</v>
       </c>
       <c r="L18" s="45">
         <v>0</v>
@@ -3641,10 +3642,10 @@
         <v>Propane</v>
       </c>
       <c r="J19" s="49">
-        <v>0.18110399119116227</v>
+        <v>0.1811197912049213</v>
       </c>
       <c r="K19" s="49">
-        <v>0.67287472967753692</v>
+        <v>0.67289718042042179</v>
       </c>
       <c r="L19" s="49">
         <v>0</v>
@@ -3774,15 +3775,15 @@
         <f>Basic!I16</f>
         <v>activity</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="39" t="str">
         <f t="array" ref="E25:G25">_xll.CalcProp($E$1,D25,$E$12,$E$11,$C$4:$C$6,$G$3,$G$4,$D$4:$D$6)</f>
-        <v>1.5403270403942019E-2</v>
-      </c>
-      <c r="F25" s="39">
-        <v>1.5403270403942019E-2</v>
-      </c>
-      <c r="G25" s="42">
-        <v>1.5403270403942019E-2</v>
+        <v>CapeOpen.CapeComputationException</v>
+      </c>
+      <c r="F25" s="39" t="str">
+        <v>CapeOpen.CapeComputationException</v>
+      </c>
+      <c r="G25" s="42" t="str">
+        <v>CapeOpen.CapeComputationException</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3867,7 +3868,7 @@
         <v>density</v>
       </c>
       <c r="E29" s="39">
-        <f>_xll.CalcProp($E$1,D29,$E$12,$E$11,$C$4:$C$6,$G$3,$G$4,$D$4:$D$6)</f>
+        <f t="array" ref="E29">_xll.CalcProp($E$1,D29,$E$12,$E$11,$C$4:$C$6,$G$3,$G$4,$D$4:$D$6)</f>
         <v>16.961659337218055</v>
       </c>
       <c r="F29" s="16"/>
@@ -3887,8 +3888,8 @@
         <v>enthalpy</v>
       </c>
       <c r="E30" s="39">
-        <f>_xll.CalcProp($E$1,D30,$E$12,$E$11,$C$4:$C$6,$G$3,$G$4,$D$4:$D$6)</f>
-        <v>-3307.121051333876</v>
+        <f t="array" ref="E30">_xll.CalcProp($E$1,D30,$E$12,$E$11,$C$4:$C$6,$G$3,$G$4,$D$4:$D$6)</f>
+        <v>-3307.1210513338756</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="9"/>
@@ -4034,23 +4035,23 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="str">
+      <c r="A39" s="12" t="e">
         <f>Basic!E30</f>
-        <v>densityOfLiquid</v>
-      </c>
-      <c r="B39" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="B39" s="13" t="e">
         <f>_xll.GetCompoundProp($B$12,A39,$G$3,0)</f>
-        <v>560.38530936967925</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="str">
+      <c r="A40" s="14" t="e">
         <f>Basic!E31</f>
-        <v>densityOfSolid</v>
-      </c>
-      <c r="B40" s="15">
+        <v>#N/A</v>
+      </c>
+      <c r="B40" s="15" t="e">
         <f>_xll.GetCompoundProp($B$12,A40,$G$3,0)</f>
-        <v>607.56846600000006</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
